--- a/QuanTriRuiRoFx.xlsx
+++ b/QuanTriRuiRoFx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
   <si>
     <t>Nội dung</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Mỗi người nên tự tạo ra bản kế hoạch trade cho riêng mình</t>
+  </si>
+  <si>
+    <t>https://github.com/thangbk236/QuanTriFx</t>
   </si>
 </sst>
 </file>
@@ -724,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,6 +775,9 @@
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">

--- a/QuanTriRuiRoFx.xlsx
+++ b/QuanTriRuiRoFx.xlsx
@@ -312,9 +312,6 @@
     <t>Sử dụng bollinger band hoặc ma để xác định hội tụ</t>
   </si>
   <si>
-    <t>Thiên Yết</t>
-  </si>
-  <si>
     <t>Người thực hiện:</t>
   </si>
   <si>
@@ -346,6 +343,9 @@
   </si>
   <si>
     <t>https://github.com/thangbk236/QuanTriFx</t>
+  </si>
+  <si>
+    <t>thangbk236</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,23 +746,23 @@
   <sheetData>
     <row r="1" spans="1:8" ht="90" x14ac:dyDescent="1.1499999999999999">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -776,17 +776,17 @@
         <v>77</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>28</v>
@@ -1258,12 +1258,12 @@
         <v>78</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J78" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="3:16" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F89" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">

--- a/QuanTriRuiRoFx.xlsx
+++ b/QuanTriRuiRoFx.xlsx
@@ -294,12 +294,6 @@
     <t>Đó là điểm đẹp để đặt stoploss</t>
   </si>
   <si>
-    <t>rEb8TK3gBgk5auZkwc6sHnwrGVJH8DuaLh</t>
-  </si>
-  <si>
-    <t>Donate XRP</t>
-  </si>
-  <si>
     <t>…v.v…</t>
   </si>
   <si>
@@ -346,6 +340,12 @@
   </si>
   <si>
     <t>thangbk236</t>
+  </si>
+  <si>
+    <t>Donate USDT Binance Smart Chain (BEP20)</t>
+  </si>
+  <si>
+    <t>0xed05b97f46e60a7a65605eaba9a4b502d32f9510</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,23 +746,23 @@
   <sheetData>
     <row r="1" spans="1:8" ht="90" x14ac:dyDescent="1.1499999999999999">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -776,28 +776,25 @@
         <v>77</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="3">
-        <v>108673309</v>
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -904,7 +901,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -979,7 +976,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>28</v>
@@ -1060,7 +1057,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D47" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -1109,7 +1106,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -1213,10 +1210,10 @@
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F70" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.25">
@@ -1258,17 +1255,17 @@
         <v>78</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J78" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J79" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="3:16" x14ac:dyDescent="0.25">
@@ -1316,7 +1313,7 @@
     </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F89" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">

--- a/QuanTriRuiRoFx.xlsx
+++ b/QuanTriRuiRoFx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
   <si>
     <t>Nội dung</t>
   </si>
@@ -312,9 +312,6 @@
     <t>Ngày lên kế hoạch:</t>
   </si>
   <si>
-    <t>Tìm kiếm các cặp tiền tệ có dịch chuyển định hướng rõ ràng trên khung thời gian lớn như h4 hay h1</t>
-  </si>
-  <si>
     <t>Bollinger band</t>
   </si>
   <si>
@@ -346,13 +343,22 @@
   </si>
   <si>
     <t>0xed05b97f46e60a7a65605eaba9a4b502d32f9510</t>
+  </si>
+  <si>
+    <t>Tìm được những cặp chạy ổn định, ít bị biến động, chạy theo xu hướng rõ ràng là đã chiến thắng thị trường 80% rồi</t>
+  </si>
+  <si>
+    <t>Hai ý này là quan trọng nhất, làm được là chiến thắng nằm trong tầm tay luôn</t>
+  </si>
+  <si>
+    <t>Tìm kiếm các cặp tiền tệ có dịch chuyển định hướng rõ ràng trên khung thời gian lớn như W,D,h4 hay h1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,6 +419,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -434,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -445,6 +458,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P96"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +760,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="90" x14ac:dyDescent="1.1499999999999999">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
@@ -756,7 +770,7 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -776,25 +790,25 @@
         <v>77</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
         <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -837,7 +851,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="D17" s="2" t="s">
         <v>58</v>
@@ -847,7 +861,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
@@ -855,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,7 +877,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
@@ -871,7 +885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
@@ -899,462 +913,472 @@
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D23" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D24" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>2</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="6" t="s">
+      <c r="F39" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="3" t="s">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="3" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D48" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D47" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D50" s="3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="3" t="s">
-        <v>36</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+      <c r="C53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D54" s="3" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D55" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="6">
+    <row r="62" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
         <v>3</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C64" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F64" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="65" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C66" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D67" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F68" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F69" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F70" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="F71" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D72" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="J72" s="3" t="s">
-        <v>85</v>
+        <v>46</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F73" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="J73" s="3" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.25">
       <c r="F74" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="F76" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F77" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="J77" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="3:16" x14ac:dyDescent="0.25">
       <c r="J78" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F79" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F82" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J83" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="J84" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F85" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F86" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C88" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F89" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F90" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F92" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F93" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F94" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="J79" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="F80" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="7" t="s">
+    <row r="96" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C96" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F84" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F85" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F86" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F87" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F88" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F89" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="3" t="s">
+      <c r="D96" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="3" t="s">
+      <c r="F97" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F93" s="3" t="s">
+      <c r="F98" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F94" s="3" t="s">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F95" s="3" t="s">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F96" s="3" t="s">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="3" t="s">
         <v>76</v>
       </c>
     </row>

--- a/QuanTriRuiRoFx.xlsx
+++ b/QuanTriRuiRoFx.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>Nội dung</t>
   </si>
@@ -353,12 +353,15 @@
   <si>
     <t>Tìm kiếm các cặp tiền tệ có dịch chuyển định hướng rõ ràng trên khung thời gian lớn như W,D,h4 hay h1</t>
   </si>
+  <si>
+    <t>Lĩnh ngộ tinh túy thị trường</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +429,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,6 +470,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,12 +770,12 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="90" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="1:12" ht="90" x14ac:dyDescent="1.1499999999999999">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>91</v>
       </c>
@@ -774,7 +786,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
@@ -785,7 +797,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>77</v>
       </c>
@@ -793,17 +805,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -811,7 +823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -824,8 +836,11 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L12" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -834,12 +849,12 @@
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
